--- a/medicine/Maladies infectieuses/Liste_de_vaccins_contre_la_Covid-19_autorisés/Liste_de_vaccins_contre_la_Covid-19_autorisés.xlsx
+++ b/medicine/Maladies infectieuses/Liste_de_vaccins_contre_la_Covid-19_autorisés/Liste_de_vaccins_contre_la_Covid-19_autorisés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_vaccins_contre_la_Covid-19_autoris%C3%A9s</t>
+          <t>Liste_de_vaccins_contre_la_Covid-19_autorisés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceci est une liste de vaccins contre la Covid-19 qui ont fait l'objet d'une communication concernant leur autorisation temporaire ou prolongée, dans un ou plusieurs pays, pour une ou plusieurs catégories de population, dans les circonstances et conditions données par les sources citées.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_vaccins_contre_la_Covid-19_autoris%C3%A9s</t>
+          <t>Liste_de_vaccins_contre_la_Covid-19_autorisés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,12 @@
           <t>Types d'autorisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Différentes agences de validation[Note 1] des médicaments ont autorisé l'utilisation de vaccins contre la COVID-19[pas clair].
-Autorisation d'urgence
-Autorisation pleine</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Différentes agences de validation[Note 1] des médicaments ont autorisé l'utilisation de vaccins contre la COVID-19[pas clair].
+</t>
         </is>
       </c>
     </row>
@@ -525,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_vaccins_contre_la_Covid-19_autoris%C3%A9s</t>
+          <t>Liste_de_vaccins_contre_la_Covid-19_autorisés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,59 +556,61 @@
           <t>Tozinaméran (Pfizer-BioNTech)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Tozinaméran, également connu sous le nom de Comirnaty, est un vaccin à ARN [1] produit par la société allemande BioNTech et la société américaine Pfizer[1],[2],[3] .
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Tozinaméran, également connu sous le nom de Comirnaty, est un vaccin à ARN  produit par la société allemande BioNTech et la société américaine Pfizer .
 Urgence (36)
-Organisation mondiale de la santé[4]
-Albanie[5]
-Andorre[6]
-Argentine[7]
-Aruba[8]
-Bahreïn[9]
-Canada [1],[10]
-Caraïbes[11]
-Chili[12]
-Colombie[13]
-Costa Rica[14]
-Émirats arabes unis[15]
-Équateur[16]
-États-Unis[17]
-Hong Kong[18]
-Irak[19]
-Israël[20]
-Jordanie[21]
-Koweït[22]
-Liban[23]
-Liechtenstein[24]
-Macédoine du Nord[25]
+Organisation mondiale de la santé
+Albanie
+Andorre
+Argentine
+Aruba
+Bahreïn
+Canada ,
+Caraïbes
+Chili
+Colombie
+Costa Rica
+Émirats arabes unis
+Équateur
+États-Unis
+Hong Kong
+Irak
+Israël
+Jordanie
+Koweït
+Liban
+Liechtenstein
+Macédoine du Nord
 Mexique[réf. nécessaire]
-Monaco[26]
-Nouvelle-Zélande[27]
-Oman[28]
-Panama[29]
-Philippines[30]
-Royaume-Uni[31],[32],[33]
-Qatar[34]
-Saint-Vincent-et-les Grenadines[35]
-Singapour[36]
-Suriname[37]
-Suisse[38]
-Ukraine[39]
-Vatican[40]
+Monaco
+Nouvelle-Zélande
+Oman
+Panama
+Philippines
+Royaume-Uni
+Qatar
+Saint-Vincent-et-les Grenadines
+Singapour
+Suriname
+Suisse
+Ukraine
+Vatican
 Pleine (12)
-Arabie saoudite[41],[42]
-Australie[43]
-Brésil[44]
-Corée du Sud[45],[46]
-Îles Féroé[47]
+Arabie saoudite,
+Australie
+Brésil
+Corée du Sud,
+Îles Féroé
 Groenland[réf. nécessaire]
-Islande[48]
-Japon[49]
-Malaisie[50]
-Norvège[51]
-Serbie[52],[53]
-Union européenne[54],[55],[56]
+Islande
+Japon
+Malaisie
+Norvège
+Serbie,
+Union européenne
 </t>
         </is>
       </c>
@@ -606,7 +621,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_vaccins_contre_la_Covid-19_autoris%C3%A9s</t>
+          <t>Liste_de_vaccins_contre_la_Covid-19_autorisés</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -624,26 +639,28 @@
           <t>mRNA-1273 (Moderna)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vaccin Moderna est un vaccin à ARN [57] produit par la société américaine Moderna, le  National Institute of Allergy and Infectious Diseases, la Biomedical Advanced Research and Development Authority et la Coalition for Epidemic Preparedness Innovations[58],[59] .
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vaccin Moderna est un vaccin à ARN  produit par la société américaine Moderna, le  National Institute of Allergy and Infectious Diseases, la Biomedical Advanced Research and Development Authority et la Coalition for Epidemic Preparedness Innovations, .
 Urgence (10)
-Andorre[60]
-Arabie saoudite[61]
-Canada[62],[10]
-États-Unis[63]
-Vietnam[64]
-Israël[65]
-Royaume-Uni[66],[67]
-Saint-Vincent-et-les Grenadines[35]
-Singapour[68]
+Andorre
+Arabie saoudite
+Canada,
+États-Unis
+Vietnam
+Israël
+Royaume-Uni,
+Saint-Vincent-et-les Grenadines
+Singapour
 Suisse[réf. nécessaire]
 Pleine (5)
-Îles Féroé[69]
+Îles Féroé
 Groenland[réf. nécessaire]
-Islande[70]
-Norvège[71]
-Union européenne[72],[73]
+Islande
+Norvège
+Union européenne,
 </t>
         </is>
       </c>
@@ -654,7 +671,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_vaccins_contre_la_Covid-19_autoris%C3%A9s</t>
+          <t>Liste_de_vaccins_contre_la_Covid-19_autorisés</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -672,65 +689,67 @@
           <t>Gam-COVID-Vac (Spoutnik V)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vaccin Sputnik V est un vaccin à vecteur viral [74] produit par l'Institut de recherche Gamaleïa d'épidémiologie et de microbiologie.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vaccin Sputnik V est un vaccin à vecteur viral  produit par l'Institut de recherche Gamaleïa d'épidémiologie et de microbiologie.
 Urgence (44)
-Algérie[75]
+Algérie
 Argentine[réf. nécessaire]
-Arménie[76]
-Bahreïn[77]
-Biolorussie[78]
-Birmanie[79]
-Bolivie[80]
-Égypte[81]
-Émirats arabes unis[82]
-Gabon[83]
-Ghana[84]
-Guatemala [85]
-Guinée[86]
-Guyana[87]
-Honduras[88]
-Iran[89]
-Irak[90]
-Italie[91]
-Jordanie[92]
-Kazakhstan[93]
-Kenya[94]
-Laos[95]
-Liban[96]
-Macédoine du Nord[97]
-Mexique[98]
-Mongolie[99]
-Monténégro[100]
-Maroc[101]
-Nicaragua[102]
-Pakistan[103]
-Palestine[104]
-Paraguay[105]
-République serbe de Bosnie (Bosnie-Herzégovine)[106]
-Russie[107]
-Saint-Vincent-et-les Grenadines[35]
-Saint-Marin[108]
-Serbie[109]
-Seychelles[110]
-Slovaquie[111]
-Sri Lanka[112]
-Tunisie[113]
-Uruguay[114]
-Venezuela[115]
-Vietnam[64]
-Zimbabwe[116]
+Arménie
+Bahreïn
+Biolorussie
+Birmanie
+Bolivie
+Égypte
+Émirats arabes unis
+Gabon
+Ghana
+Guatemala 
+Guinée
+Guyana
+Honduras
+Iran
+Irak
+Italie
+Jordanie
+Kazakhstan
+Kenya
+Laos
+Liban
+Macédoine du Nord
+Mexique
+Mongolie
+Monténégro
+Maroc
+Nicaragua
+Pakistan
+Palestine
+Paraguay
+République serbe de Bosnie (Bosnie-Herzégovine)
+Russie
+Saint-Vincent-et-les Grenadines
+Saint-Marin
+Serbie
+Seychelles
+Slovaquie
+Sri Lanka
+Tunisie
+Uruguay
+Venezuela
+Vietnam
+Zimbabwe
 Pleine (9)
 Angola[réf. nécessaire]
-Azerbaïdjan[117],[118]
-République du Congo[119]
-Djibouti[119]
-Hongrie[120],[106],[121]
+Azerbaïdjan,
+République du Congo
+Djibouti
+Hongrie
 Kirghizistan[réf. nécessaire]
-Syrie[122]
-Turkménistan[123],[106]
-Ouzbékistan[124]
+Syrie
+Turkménistan,
+Ouzbékistan
 </t>
         </is>
       </c>
@@ -741,7 +760,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_vaccins_contre_la_Covid-19_autoris%C3%A9s</t>
+          <t>Liste_de_vaccins_contre_la_Covid-19_autorisés</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -759,63 +778,65 @@
           <t>AZD1222 (Oxford-AstraZeneca)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vaccin Oxford-AstraZeneca , également connu sous le nom de Covishield notamment en Inde, est un vaccin à vecteur viral [125] produit par l' Université britannique d'Oxford, la société suédoise AstraZeneca et la Coalition for Epidemic Preparedness Innovations[125],[126],[127] .
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vaccin Oxford-AstraZeneca , également connu sous le nom de Covishield notamment en Inde, est un vaccin à vecteur viral  produit par l' Université britannique d'Oxford, la société suédoise AstraZeneca et la Coalition for Epidemic Preparedness Innovations .
 Urgence (42)
-Organisation mondiale de la santé[4],[128],[129]
-Afghanistan[130],[131]
-Andorre[60]
-Arabie saoudite[61]
-Argentine[132]
-Bahreïn[133]
-Bangladesh[134],[135]
+Organisation mondiale de la santé
+Afghanistan,
+Andorre
+Arabie saoudite
+Argentine
+Bahreïn
+Bangladesh,
 Birmanie[réf. nécessaire]
-Côte d'Ivoire[136]
-République dominicaine[137]
-Équateur[138]
-Égypte[81]
-Éthiopie[139],[140],[141]
-Gambie[142]
-Guyana[143],[144]
-Inde[145]
-Indonésie[146]
-Irak[147]
-Kenya[148]
-Malawi[149],[150]
-Maldives[151]
-Maurice[152]
-Mexique[153]
-Népal[154]
-Nigéria[81]
-Pakistan[155]
-Philippines[156]
-Royaume-Uni[157],[158]
-Rwanda[159]
-Saint-Vincent-et-les Grenadines [35]
-Salvador[160]
-Serbie[161]
-Sierra Leone[162]
-Sri Lanka[163]
-Soudan[164],[165]
-Suriname[166]
-Taïwan[167]
-Thaïlande[168]
-Togo[169]
-Ouganda[170]
-Ukraine[171]
-Vietnam[172]
+Côte d'Ivoire
+République dominicaine
+Équateur
+Égypte
+Éthiopie
+Gambie
+Guyana,
+Inde
+Indonésie
+Irak
+Kenya
+Malawi,
+Maldives
+Maurice
+Mexique
+Népal
+Nigéria
+Pakistan
+Philippines
+Royaume-Uni,
+Rwanda
+Saint-Vincent-et-les Grenadines 
+Salvador
+Serbie
+Sierra Leone
+Sri Lanka
+Soudan,
+Suriname
+Taïwan
+Thaïlande
+Togo
+Ouganda
+Ukraine
+Vietnam
 Pleine (10)
-Australie[173],[174]
-Brésil[175]
-Canada[176],[10]
-Corée du Sud[177],[178]
-Îles Féroé[179]
+Australie,
+Brésil
+Canada,
+Corée du Sud,
+Îles Féroé
 Groenland[réf. nécessaire]
-Islande[180]
-Malaisie[181]
-Norvège[182]
-Union européenne[183]
+Islande
+Malaisie
+Norvège
+Union européenne
 </t>
         </is>
       </c>
@@ -826,7 +847,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_vaccins_contre_la_Covid-19_autoris%C3%A9s</t>
+          <t>Liste_de_vaccins_contre_la_Covid-19_autorisés</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -844,23 +865,25 @@
           <t>Ad26.COV2.S (Janssen / Johnson &amp; Johnson)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vaccin Johnson &amp; Johnson est un vaccin à vecteur viral  produit par la société américaine Janssen Pharmaceutica (filiale de Johnson &amp; Johnson ) et Beth Israel Deaconess Medical Center[184],[185] .
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vaccin Johnson &amp; Johnson est un vaccin à vecteur viral  produit par la société américaine Janssen Pharmaceutica (filiale de Johnson &amp; Johnson ) et Beth Israel Deaconess Medical Center, .
 Urgence (8)
-Organisation mondiale de la santé[186]
-Afrique du Sud [187]
-Andorre[60]
-Bahreïn[188]
-Canada[189]
-États-Unis[Note 2][190],[191]
-Liechtenstein[192]
-Saint-Vincent-et-les Grenadines[35]
+Organisation mondiale de la santé
+Afrique du Sud 
+Andorre
+Bahreïn
+Canada
+États-Unis[Note 2],
+Liechtenstein
+Saint-Vincent-et-les Grenadines
 Pleine (5)
-Îles Féroé[193]
+Îles Féroé
 Groenland[réf. nécessaire]
-Islande[194]
-Norvège[195]
+Islande
+Norvège
 Union européenne[réf. nécessaire]
 </t>
         </is>
@@ -872,7 +895,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_vaccins_contre_la_Covid-19_autoris%C3%A9s</t>
+          <t>Liste_de_vaccins_contre_la_Covid-19_autorisés</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -890,16 +913,18 @@
           <t>Ad5-nCoV / Convidecia (CanSino Biologics)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Convidicea est un vaccin à vecteur viral [196] produit par la société chinoise CanSino Biologics et l'Institut de biotechnologie de Pékin de l' Académie des sciences médicales militaires .
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Convidicea est un vaccin à vecteur viral  produit par la société chinoise CanSino Biologics et l'Institut de biotechnologie de Pékin de l' Académie des sciences médicales militaires .
 Urgence (4)
 Hongrie[réf. nécessaire]
 Malaisie[réf. nécessaire]
 Mexique[réf. nécessaire]
 Pakistan[réf. nécessaire]
 Pleine (1)
-Chine[197]</t>
+Chine</t>
         </is>
       </c>
     </row>
@@ -909,7 +934,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_vaccins_contre_la_Covid-19_autoris%C3%A9s</t>
+          <t>Liste_de_vaccins_contre_la_Covid-19_autorisés</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -927,42 +952,44 @@
           <t>BBIBP-CorV (Sinopharm)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BBIBP-CorV est un vaccin inactivé [198] produit par Sinopharm[198].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BBIBP-CorV est un vaccin inactivé  produit par Sinopharm.
 Urgence (27)
-Argentine[199]
-Biolorussie[200]
-Bolivie[201]
-Cambodge[202]
-Dominique[203]
-Égypte[204]
-Gabon[205]
-Guyana[206]
-Hongrie[207]
+Argentine
+Biolorussie
+Bolivie
+Cambodge
+Dominique
+Égypte
+Gabon
+Guyana
+Hongrie
 Iran[réf. nécessaire]
-Irak[147]
-Jordanie[208]
-Laos[95]
+Irak
+Jordanie
+Laos
 Liban[réf. nécessaire]
-Macao[209]
-Maldives[210]
-Mongolie[211]
-Maroc[212]
-Mozambique[213]
-Népal[214]
-Pakistan[215]
-Pérou[216]
-Sénégal[217]
-Serbie[218]
-Sierra Leone[219]
-Venezuela[220]
-Zimbabwe[221]
+Macao
+Maldives
+Mongolie
+Maroc
+Mozambique
+Népal
+Pakistan
+Pérou
+Sénégal
+Serbie
+Sierra Leone
+Venezuela
+Zimbabwe
 Pleine (4)
-Bahreïn[222]
+Bahreïn
 Chine[réf. nécessaire]
-Seychelles[223]
-Émirats arabes unis[224],[225]
+Seychelles
+Émirats arabes unis,
 </t>
         </is>
       </c>
@@ -973,7 +1000,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_vaccins_contre_la_Covid-19_autoris%C3%A9s</t>
+          <t>Liste_de_vaccins_contre_la_Covid-19_autorisés</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -991,12 +1018,14 @@
           <t>WIBP (Sinopharm)</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>WIBP est le deuxième vaccin inactivé de Sinopharm contre le Covid-19.
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WIBP est le deuxième vaccin inactivé de Sinopharm contre le Covid-19.
 Voir (en) WIBP-CorV.
-Chine[226]
-Emirats-arabes-unis [227]</t>
+Chine
+Emirats-arabes-unis </t>
         </is>
       </c>
     </row>
@@ -1006,7 +1035,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_vaccins_contre_la_Covid-19_autoris%C3%A9s</t>
+          <t>Liste_de_vaccins_contre_la_Covid-19_autorisés</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1024,30 +1053,32 @@
           <t>CoronaVac (Sinovac Biotech)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>CoronaVac est un vaccin inactivé [228] produit par la société chinoise Sinovac Biotech[228],[229],[230] .
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>CoronaVac est un vaccin inactivé  produit par la société chinoise Sinovac Biotech .
 Urgence (20)
-Azerbaïdjan[231]
-Bolivie[232]
-Brésil[233]
-Cambodge[234]
-Chili[235]
-Colombie[236]
-République dominicaine[237]
-Équateur[238]
-Hong Kong[239]
-Indonésie[240],[241]
-Laos[242]
-Mexique[243]
-Paraguay[244]
-Philippines[245]
-Thaïlande[246]
-Tunisie[247]
-Turquie[240]
-Ukraine[248]
+Azerbaïdjan
+Bolivie
+Brésil
+Cambodge
+Chili
+Colombie
+République dominicaine
+Équateur
+Hong Kong
+Indonésie,
+Laos
+Mexique
+Paraguay
+Philippines
+Thaïlande
+Tunisie
+Turquie
+Ukraine
 Uruguay[réf. nécessaire]
-Zimbabwe [116]
+Zimbabwe 
 Pleine (1)
 Chine[réf. nécessaire]</t>
         </is>
@@ -1059,7 +1090,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_vaccins_contre_la_Covid-19_autoris%C3%A9s</t>
+          <t>Liste_de_vaccins_contre_la_Covid-19_autorisés</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1077,13 +1108,15 @@
           <t>BBV152 / Covaxin (Bharat Biotech)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Covaxin est un vaccin inactivé [249] produit par la société indienne Bharat Biotech et le Conseil indien de la recherche médicale .
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Covaxin est un vaccin inactivé  produit par la société indienne Bharat Biotech et le Conseil indien de la recherche médicale .
 Urgence (3)
-Inde[145]
+Inde
 Iran[réf. nécessaire]
-Zimbabwe[250]
+Zimbabwe
 Pleine (0)
 Aucun</t>
         </is>
@@ -1095,7 +1128,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_vaccins_contre_la_Covid-19_autoris%C3%A9s</t>
+          <t>Liste_de_vaccins_contre_la_Covid-19_autorisés</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1113,11 +1146,13 @@
           <t>CoviVac (Chumakov)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Covivac est un vaccin inactivé produit par le centre Chumakov de l'académie russe des sciences.
 Urgence (1)
-Russie[251]
+Russie
 Pleine (0)
 Aucun</t>
         </is>
@@ -1129,7 +1164,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_vaccins_contre_la_Covid-19_autoris%C3%A9s</t>
+          <t>Liste_de_vaccins_contre_la_Covid-19_autorisés</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1147,12 +1182,14 @@
           <t>ZF2001 / RBD-Dimer (Anhui Zhifei Longcom)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>RBD-Dimer est un vaccin inactivé sous-unitaire produit par la société chinoise Anhui Zhifei Longcom Biopharmaceutical[252] .
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>RBD-Dimer est un vaccin inactivé sous-unitaire produit par la société chinoise Anhui Zhifei Longcom Biopharmaceutical .
 Urgence (2)
-Chine[253]
-Ouzbékistan[254],[255]
+Chine
+Ouzbékistan,
 Pleine (0)
 Aucun</t>
         </is>
@@ -1164,7 +1201,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_de_vaccins_contre_la_Covid-19_autoris%C3%A9s</t>
+          <t>Liste_de_vaccins_contre_la_Covid-19_autorisés</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1182,13 +1219,15 @@
           <t>EpiVacCorona (Vector)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>EpiVacCorona est un vaccin peptidique produit par le Centre de recherche d'État russe sur la virologie et la biotechnologie VECTOR[256] .
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>EpiVacCorona est un vaccin peptidique produit par le Centre de recherche d'État russe sur la virologie et la biotechnologie VECTOR .
 Urgence (1)
-Russie[257],[258]
+Russie,
 Pleine (1)
-Turkménistan [259],[260]</t>
+Turkménistan ,</t>
         </is>
       </c>
     </row>
